--- a/EstilosDeGestãoPandemiaCERTO.xlsx
+++ b/EstilosDeGestãoPandemiaCERTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00a4974a78af6a73/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A167665E-CA0F-4AA7-BF45-E087B71F5A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{A167665E-CA0F-4AA7-BF45-E087B71F5A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{214A4926-232E-4BCE-80FD-FF201FEF6F72}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="107">
   <si>
     <t>Escolaridade</t>
   </si>
@@ -354,16 +354,7 @@
     <t>A10</t>
   </si>
   <si>
-    <t>Liderança_R</t>
-  </si>
-  <si>
-    <t>Liderança_T</t>
-  </si>
-  <si>
-    <t>Segurança</t>
-  </si>
-  <si>
-    <t>Autoeficácia</t>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -404,13 +395,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,20 +715,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM128"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AI128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO3" sqref="AO3"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO124" sqref="AO124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -844,20 +831,8 @@
       <c r="AI1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="2" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -963,24 +938,8 @@
       <c r="AI2" s="1">
         <v>5</v>
       </c>
-      <c r="AJ2" s="3">
-        <f>AVERAGE(O2:V2)</f>
-        <v>5</v>
-      </c>
-      <c r="AK2" s="3">
-        <f>AVERAGE(I2:N2)</f>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="AL2" s="3">
-        <f>AVERAGE(W2:Y2)</f>
-        <v>5</v>
-      </c>
-      <c r="AM2" s="3">
-        <f>AVERAGE(Z2:AI2)</f>
-        <v>4.0999999999999996</v>
-      </c>
     </row>
-    <row r="3" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1086,24 +1045,8 @@
       <c r="AI3" s="1">
         <v>4</v>
       </c>
-      <c r="AJ3" s="3">
-        <f t="shared" ref="AJ3:AJ66" si="0">AVERAGE(O3:V3)</f>
-        <v>4.625</v>
-      </c>
-      <c r="AK3" s="3">
-        <f t="shared" ref="AK3:AK66" si="1">AVERAGE(I3:N3)</f>
-        <v>3.5</v>
-      </c>
-      <c r="AL3" s="3">
-        <f t="shared" ref="AL3:AL66" si="2">AVERAGE(W3:Y3)</f>
-        <v>5</v>
-      </c>
-      <c r="AM3" s="3">
-        <f t="shared" ref="AM3:AM66" si="3">AVERAGE(Z3:AI3)</f>
-        <v>3.4</v>
-      </c>
     </row>
-    <row r="4" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1209,24 +1152,8 @@
       <c r="AI4" s="1">
         <v>2</v>
       </c>
-      <c r="AJ4" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AK4" s="3">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AL4" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM4" s="3">
-        <f t="shared" si="3"/>
-        <v>2.2999999999999998</v>
-      </c>
     </row>
-    <row r="5" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1332,24 +1259,8 @@
       <c r="AI5" s="1">
         <v>4</v>
       </c>
-      <c r="AJ5" s="3">
-        <f t="shared" si="0"/>
-        <v>2.625</v>
-      </c>
-      <c r="AK5" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AL5" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM5" s="3">
-        <f t="shared" si="3"/>
-        <v>4.2</v>
-      </c>
     </row>
-    <row r="6" spans="1:39" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1455,24 +1366,8 @@
       <c r="AI6" s="1">
         <v>5</v>
       </c>
-      <c r="AJ6" s="3">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="AK6" s="3">
-        <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AL6" s="3">
-        <f t="shared" si="2"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AM6" s="3">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
     </row>
-    <row r="7" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1578,24 +1473,8 @@
       <c r="AI7" s="1">
         <v>4</v>
       </c>
-      <c r="AJ7" s="3">
-        <f t="shared" si="0"/>
-        <v>2.875</v>
-      </c>
-      <c r="AK7" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AL7" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AM7" s="3">
-        <f t="shared" si="3"/>
-        <v>3.8</v>
-      </c>
     </row>
-    <row r="8" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1701,24 +1580,8 @@
       <c r="AI8" s="1">
         <v>3</v>
       </c>
-      <c r="AJ8" s="3">
-        <f t="shared" si="0"/>
-        <v>4.375</v>
-      </c>
-      <c r="AK8" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL8" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AM8" s="3">
-        <f t="shared" si="3"/>
-        <v>3.7</v>
-      </c>
     </row>
-    <row r="9" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1824,24 +1687,8 @@
       <c r="AI9" s="1">
         <v>4</v>
       </c>
-      <c r="AJ9" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AK9" s="3">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="AL9" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM9" s="3">
-        <f t="shared" si="3"/>
-        <v>4.5999999999999996</v>
-      </c>
     </row>
-    <row r="10" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1947,24 +1794,8 @@
       <c r="AI10" s="1">
         <v>3</v>
       </c>
-      <c r="AJ10" s="3">
-        <f t="shared" si="0"/>
-        <v>3.375</v>
-      </c>
-      <c r="AK10" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL10" s="3">
-        <f t="shared" si="2"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AM10" s="3">
-        <f t="shared" si="3"/>
-        <v>3.2</v>
-      </c>
     </row>
-    <row r="11" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2070,24 +1901,8 @@
       <c r="AI11" s="1">
         <v>5</v>
       </c>
-      <c r="AJ11" s="3">
-        <f t="shared" si="0"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK11" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="AL11" s="3">
-        <f t="shared" si="2"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AM11" s="3">
-        <f t="shared" si="3"/>
-        <v>4.7</v>
-      </c>
     </row>
-    <row r="12" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2193,24 +2008,8 @@
       <c r="AI12" s="1">
         <v>4</v>
       </c>
-      <c r="AJ12" s="3">
-        <f t="shared" si="0"/>
-        <v>4.375</v>
-      </c>
-      <c r="AK12" s="3">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AL12" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM12" s="3">
-        <f t="shared" si="3"/>
-        <v>3.6</v>
-      </c>
     </row>
-    <row r="13" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2316,24 +2115,8 @@
       <c r="AI13" s="1">
         <v>4</v>
       </c>
-      <c r="AJ13" s="3">
-        <f t="shared" si="0"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK13" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AL13" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM13" s="3">
-        <f t="shared" si="3"/>
-        <v>3.8</v>
-      </c>
     </row>
-    <row r="14" spans="1:39" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2439,24 +2222,8 @@
       <c r="AI14" s="1">
         <v>3</v>
       </c>
-      <c r="AJ14" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AK14" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AL14" s="3">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AM14" s="3">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
     </row>
-    <row r="15" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2562,24 +2329,8 @@
       <c r="AI15" s="1">
         <v>4</v>
       </c>
-      <c r="AJ15" s="3">
-        <f t="shared" si="0"/>
-        <v>4.125</v>
-      </c>
-      <c r="AK15" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL15" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AM15" s="3">
-        <f t="shared" si="3"/>
-        <v>3.6</v>
-      </c>
     </row>
-    <row r="16" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2685,24 +2436,8 @@
       <c r="AI16" s="1">
         <v>4</v>
       </c>
-      <c r="AJ16" s="3">
-        <f t="shared" si="0"/>
-        <v>2.875</v>
-      </c>
-      <c r="AK16" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AL16" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AM16" s="3">
-        <f t="shared" si="3"/>
-        <v>4.3</v>
-      </c>
     </row>
-    <row r="17" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2808,24 +2543,8 @@
       <c r="AI17" s="1">
         <v>5</v>
       </c>
-      <c r="AJ17" s="3">
-        <f t="shared" si="0"/>
-        <v>2.375</v>
-      </c>
-      <c r="AK17" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AL17" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AM17" s="3">
-        <f t="shared" si="3"/>
-        <v>4.9000000000000004</v>
-      </c>
     </row>
-    <row r="18" spans="1:39" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -2931,24 +2650,8 @@
       <c r="AI18" s="1">
         <v>4</v>
       </c>
-      <c r="AJ18" s="3">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-      <c r="AK18" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AL18" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AM18" s="3">
-        <f t="shared" si="3"/>
-        <v>3.6</v>
-      </c>
     </row>
-    <row r="19" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -3054,24 +2757,8 @@
       <c r="AI19" s="1">
         <v>4</v>
       </c>
-      <c r="AJ19" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AK19" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="AL19" s="3">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AM19" s="3">
-        <f t="shared" si="3"/>
-        <v>4.3</v>
-      </c>
     </row>
-    <row r="20" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -3177,24 +2864,8 @@
       <c r="AI20" s="1">
         <v>4</v>
       </c>
-      <c r="AJ20" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="AK20" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AL20" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM20" s="3">
-        <f t="shared" si="3"/>
-        <v>3.4</v>
-      </c>
     </row>
-    <row r="21" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -3300,24 +2971,8 @@
       <c r="AI21" s="1">
         <v>3</v>
       </c>
-      <c r="AJ21" s="3">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="AK21" s="3">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="AL21" s="3">
-        <f t="shared" si="2"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AM21" s="3">
-        <f t="shared" si="3"/>
-        <v>3.8</v>
-      </c>
     </row>
-    <row r="22" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -3423,24 +3078,8 @@
       <c r="AI22" s="1">
         <v>4</v>
       </c>
-      <c r="AJ22" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AK22" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AL22" s="3">
-        <f t="shared" si="2"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AM22" s="3">
-        <f t="shared" si="3"/>
-        <v>3.8</v>
-      </c>
     </row>
-    <row r="23" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -3546,24 +3185,8 @@
       <c r="AI23" s="1">
         <v>3</v>
       </c>
-      <c r="AJ23" s="3">
-        <f t="shared" si="0"/>
-        <v>3.875</v>
-      </c>
-      <c r="AK23" s="3">
-        <f t="shared" si="1"/>
-        <v>4.833333333333333</v>
-      </c>
-      <c r="AL23" s="3">
-        <f t="shared" si="2"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AM23" s="3">
-        <f t="shared" si="3"/>
-        <v>3.3</v>
-      </c>
     </row>
-    <row r="24" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -3669,24 +3292,8 @@
       <c r="AI24" s="1">
         <v>4</v>
       </c>
-      <c r="AJ24" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AK24" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AL24" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM24" s="3">
-        <f t="shared" si="3"/>
-        <v>3.9</v>
-      </c>
     </row>
-    <row r="25" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -3792,24 +3399,8 @@
       <c r="AI25" s="1">
         <v>4</v>
       </c>
-      <c r="AJ25" s="3">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="AK25" s="3">
-        <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AL25" s="3">
-        <f t="shared" si="2"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AM25" s="3">
-        <f t="shared" si="3"/>
-        <v>3.6</v>
-      </c>
     </row>
-    <row r="26" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -3915,24 +3506,8 @@
       <c r="AI26" s="1">
         <v>3</v>
       </c>
-      <c r="AJ26" s="3">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-      <c r="AK26" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AL26" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM26" s="3">
-        <f t="shared" si="3"/>
-        <v>3.4</v>
-      </c>
     </row>
-    <row r="27" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -4038,24 +3613,8 @@
       <c r="AI27" s="1">
         <v>4</v>
       </c>
-      <c r="AJ27" s="3">
-        <f t="shared" si="0"/>
-        <v>4.375</v>
-      </c>
-      <c r="AK27" s="3">
-        <f t="shared" si="1"/>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="AL27" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM27" s="3">
-        <f t="shared" si="3"/>
-        <v>3.3</v>
-      </c>
     </row>
-    <row r="28" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4161,24 +3720,8 @@
       <c r="AI28" s="1">
         <v>2</v>
       </c>
-      <c r="AJ28" s="3">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="AK28" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL28" s="3">
-        <f t="shared" si="2"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AM28" s="3">
-        <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
-      </c>
     </row>
-    <row r="29" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -4284,24 +3827,8 @@
       <c r="AI29" s="1">
         <v>3</v>
       </c>
-      <c r="AJ29" s="3">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="AK29" s="3">
-        <f t="shared" si="1"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="AL29" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AM29" s="3">
-        <f t="shared" si="3"/>
-        <v>3.4</v>
-      </c>
     </row>
-    <row r="30" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -4407,24 +3934,8 @@
       <c r="AI30" s="1">
         <v>3</v>
       </c>
-      <c r="AJ30" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="AK30" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="AL30" s="3">
-        <f t="shared" si="2"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AM30" s="3">
-        <f t="shared" si="3"/>
-        <v>3.2</v>
-      </c>
     </row>
-    <row r="31" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -4530,24 +4041,8 @@
       <c r="AI31" s="1">
         <v>4</v>
       </c>
-      <c r="AJ31" s="3">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-      <c r="AK31" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="AL31" s="3">
-        <f t="shared" si="2"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AM31" s="3">
-        <f t="shared" si="3"/>
-        <v>3.4</v>
-      </c>
     </row>
-    <row r="32" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -4653,24 +4148,8 @@
       <c r="AI32" s="1">
         <v>3</v>
       </c>
-      <c r="AJ32" s="3">
-        <f t="shared" si="0"/>
-        <v>2.75</v>
-      </c>
-      <c r="AK32" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AL32" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AM32" s="3">
-        <f t="shared" si="3"/>
-        <v>3.3</v>
-      </c>
     </row>
-    <row r="33" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -4776,24 +4255,8 @@
       <c r="AI33" s="1">
         <v>3</v>
       </c>
-      <c r="AJ33" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AK33" s="3">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="AL33" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM33" s="3">
-        <f t="shared" si="3"/>
-        <v>2.6</v>
-      </c>
     </row>
-    <row r="34" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -4899,24 +4362,8 @@
       <c r="AI34" s="1">
         <v>4</v>
       </c>
-      <c r="AJ34" s="3">
-        <f t="shared" si="0"/>
-        <v>4.125</v>
-      </c>
-      <c r="AK34" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL34" s="3">
-        <f t="shared" si="2"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AM34" s="3">
-        <f t="shared" si="3"/>
-        <v>3.2</v>
-      </c>
     </row>
-    <row r="35" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -5022,24 +4469,8 @@
       <c r="AI35" s="1">
         <v>4</v>
       </c>
-      <c r="AJ35" s="3">
-        <f t="shared" si="0"/>
-        <v>3.625</v>
-      </c>
-      <c r="AK35" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL35" s="3">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AM35" s="3">
-        <f t="shared" si="3"/>
-        <v>4.0999999999999996</v>
-      </c>
     </row>
-    <row r="36" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -5145,24 +4576,8 @@
       <c r="AI36" s="1">
         <v>5</v>
       </c>
-      <c r="AJ36" s="3">
-        <f t="shared" si="0"/>
-        <v>4.875</v>
-      </c>
-      <c r="AK36" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL36" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM36" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
     </row>
-    <row r="37" spans="1:39" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -5268,24 +4683,8 @@
       <c r="AI37" s="1">
         <v>3</v>
       </c>
-      <c r="AJ37" s="3">
-        <f t="shared" si="0"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK37" s="3">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AL37" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM37" s="3">
-        <f t="shared" si="3"/>
-        <v>3.9</v>
-      </c>
     </row>
-    <row r="38" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -5391,24 +4790,8 @@
       <c r="AI38" s="1">
         <v>5</v>
       </c>
-      <c r="AJ38" s="3">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-      <c r="AK38" s="3">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="AL38" s="3">
-        <f t="shared" si="2"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AM38" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="39" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -5514,24 +4897,8 @@
       <c r="AI39" s="1">
         <v>4</v>
       </c>
-      <c r="AJ39" s="3">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="AK39" s="3">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AL39" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM39" s="3">
-        <f t="shared" si="3"/>
-        <v>3.7</v>
-      </c>
     </row>
-    <row r="40" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -5637,24 +5004,8 @@
       <c r="AI40" s="1">
         <v>4</v>
       </c>
-      <c r="AJ40" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AK40" s="3">
-        <f t="shared" si="1"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="AL40" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM40" s="3">
-        <f t="shared" si="3"/>
-        <v>2.9</v>
-      </c>
     </row>
-    <row r="41" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -5760,24 +5111,8 @@
       <c r="AI41" s="1">
         <v>4</v>
       </c>
-      <c r="AJ41" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AK41" s="3">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AL41" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM41" s="3">
-        <f t="shared" si="3"/>
-        <v>3.8</v>
-      </c>
     </row>
-    <row r="42" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -5883,24 +5218,8 @@
       <c r="AI42" s="1">
         <v>4</v>
       </c>
-      <c r="AJ42" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AK42" s="3">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="AL42" s="3">
-        <f t="shared" si="2"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AM42" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="43" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -6006,24 +5325,8 @@
       <c r="AI43" s="1">
         <v>4</v>
       </c>
-      <c r="AJ43" s="3">
-        <f t="shared" si="0"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK43" s="3">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AL43" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM43" s="3">
-        <f t="shared" si="3"/>
-        <v>4.4000000000000004</v>
-      </c>
     </row>
-    <row r="44" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -6129,24 +5432,8 @@
       <c r="AI44" s="1">
         <v>3</v>
       </c>
-      <c r="AJ44" s="3">
-        <f t="shared" si="0"/>
-        <v>2.375</v>
-      </c>
-      <c r="AK44" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AL44" s="3">
-        <f t="shared" si="2"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AM44" s="3">
-        <f t="shared" si="3"/>
-        <v>2.8</v>
-      </c>
     </row>
-    <row r="45" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -6252,24 +5539,8 @@
       <c r="AI45" s="1">
         <v>5</v>
       </c>
-      <c r="AJ45" s="3">
-        <f t="shared" si="0"/>
-        <v>3.125</v>
-      </c>
-      <c r="AK45" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AL45" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM45" s="3">
-        <f t="shared" si="3"/>
-        <v>4.7</v>
-      </c>
     </row>
-    <row r="46" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -6375,24 +5646,8 @@
       <c r="AI46" s="1">
         <v>3</v>
       </c>
-      <c r="AJ46" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AK46" s="3">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="AL46" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM46" s="3">
-        <f t="shared" si="3"/>
-        <v>3.2</v>
-      </c>
     </row>
-    <row r="47" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -6498,24 +5753,8 @@
       <c r="AI47" s="1">
         <v>4</v>
       </c>
-      <c r="AJ47" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="AK47" s="3">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="AL47" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AM47" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="48" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -6621,24 +5860,8 @@
       <c r="AI48" s="1">
         <v>3</v>
       </c>
-      <c r="AJ48" s="3">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-      <c r="AK48" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AL48" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM48" s="3">
-        <f t="shared" si="3"/>
-        <v>3.3</v>
-      </c>
     </row>
-    <row r="49" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -6744,24 +5967,8 @@
       <c r="AI49" s="1">
         <v>5</v>
       </c>
-      <c r="AJ49" s="3">
-        <f t="shared" si="0"/>
-        <v>4.875</v>
-      </c>
-      <c r="AK49" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AL49" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM49" s="3">
-        <f t="shared" si="3"/>
-        <v>4.3</v>
-      </c>
     </row>
-    <row r="50" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -6867,24 +6074,8 @@
       <c r="AI50" s="1">
         <v>4</v>
       </c>
-      <c r="AJ50" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AK50" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AL50" s="3">
-        <f t="shared" si="2"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AM50" s="3">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
     </row>
-    <row r="51" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -6990,24 +6181,8 @@
       <c r="AI51" s="1">
         <v>4</v>
       </c>
-      <c r="AJ51" s="3">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-      <c r="AK51" s="3">
-        <f t="shared" si="1"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="AL51" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM51" s="3">
-        <f t="shared" si="3"/>
-        <v>4.2</v>
-      </c>
     </row>
-    <row r="52" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -7113,24 +6288,8 @@
       <c r="AI52" s="1">
         <v>4</v>
       </c>
-      <c r="AJ52" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AK52" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AL52" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM52" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="53" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -7236,24 +6395,8 @@
       <c r="AI53" s="1">
         <v>4</v>
       </c>
-      <c r="AJ53" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AK53" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL53" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM53" s="3">
-        <f t="shared" si="3"/>
-        <v>3.8</v>
-      </c>
     </row>
-    <row r="54" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
@@ -7359,24 +6502,8 @@
       <c r="AI54" s="1">
         <v>2</v>
       </c>
-      <c r="AJ54" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AK54" s="3">
-        <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AL54" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM54" s="3">
-        <f t="shared" si="3"/>
-        <v>2.6</v>
-      </c>
     </row>
-    <row r="55" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -7482,24 +6609,8 @@
       <c r="AI55" s="1">
         <v>4</v>
       </c>
-      <c r="AJ55" s="3">
-        <f t="shared" si="0"/>
-        <v>3.875</v>
-      </c>
-      <c r="AK55" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL55" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AM55" s="3">
-        <f t="shared" si="3"/>
-        <v>4.0999999999999996</v>
-      </c>
     </row>
-    <row r="56" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -7605,24 +6716,8 @@
       <c r="AI56" s="1">
         <v>3</v>
       </c>
-      <c r="AJ56" s="3">
-        <f t="shared" si="0"/>
-        <v>2.375</v>
-      </c>
-      <c r="AK56" s="3">
-        <f t="shared" si="1"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="AL56" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AM56" s="3">
-        <f t="shared" si="3"/>
-        <v>3.3</v>
-      </c>
     </row>
-    <row r="57" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -7728,24 +6823,8 @@
       <c r="AI57" s="1">
         <v>4</v>
       </c>
-      <c r="AJ57" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AK57" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AL57" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM57" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="58" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -7851,24 +6930,8 @@
       <c r="AI58" s="1">
         <v>5</v>
       </c>
-      <c r="AJ58" s="3">
-        <f t="shared" si="0"/>
-        <v>3.875</v>
-      </c>
-      <c r="AK58" s="3">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="AL58" s="3">
-        <f t="shared" si="2"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AM58" s="3">
-        <f t="shared" si="3"/>
-        <v>4.0999999999999996</v>
-      </c>
     </row>
-    <row r="59" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -7974,24 +7037,8 @@
       <c r="AI59" s="1">
         <v>4</v>
       </c>
-      <c r="AJ59" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AK59" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AL59" s="3">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AM59" s="3">
-        <f t="shared" si="3"/>
-        <v>3.2</v>
-      </c>
     </row>
-    <row r="60" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -8097,24 +7144,8 @@
       <c r="AI60" s="1">
         <v>5</v>
       </c>
-      <c r="AJ60" s="3">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="AK60" s="3">
-        <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AL60" s="3">
-        <f t="shared" si="2"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AM60" s="3">
-        <f t="shared" si="3"/>
-        <v>4.8</v>
-      </c>
     </row>
-    <row r="61" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -8220,24 +7251,8 @@
       <c r="AI61" s="1">
         <v>1</v>
       </c>
-      <c r="AJ61" s="3">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="AK61" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AL61" s="3">
-        <f t="shared" si="2"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AM61" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4</v>
-      </c>
     </row>
-    <row r="62" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -8343,24 +7358,8 @@
       <c r="AI62" s="1">
         <v>4</v>
       </c>
-      <c r="AJ62" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AK62" s="3">
-        <f t="shared" si="1"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="AL62" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM62" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="63" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -8466,24 +7465,8 @@
       <c r="AI63" s="1">
         <v>4</v>
       </c>
-      <c r="AJ63" s="3">
-        <f t="shared" si="0"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK63" s="3">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="AL63" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM63" s="3">
-        <f t="shared" si="3"/>
-        <v>4.3</v>
-      </c>
     </row>
-    <row r="64" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -8589,24 +7572,8 @@
       <c r="AI64" s="1">
         <v>5</v>
       </c>
-      <c r="AJ64" s="3">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-      <c r="AK64" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL64" s="3">
-        <f t="shared" si="2"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AM64" s="3">
-        <f t="shared" si="3"/>
-        <v>4.9000000000000004</v>
-      </c>
     </row>
-    <row r="65" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
@@ -8712,24 +7679,8 @@
       <c r="AI65" s="1">
         <v>4</v>
       </c>
-      <c r="AJ65" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AK65" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL65" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AM65" s="3">
-        <f t="shared" si="3"/>
-        <v>4.0999999999999996</v>
-      </c>
     </row>
-    <row r="66" spans="1:39" ht="135" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
@@ -8835,24 +7786,8 @@
       <c r="AI66" s="1">
         <v>4</v>
       </c>
-      <c r="AJ66" s="3">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="AK66" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AL66" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AM66" s="3">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
     </row>
-    <row r="67" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -8958,24 +7893,8 @@
       <c r="AI67" s="1">
         <v>5</v>
       </c>
-      <c r="AJ67" s="3">
-        <f t="shared" ref="AJ67:AJ128" si="4">AVERAGE(O67:V67)</f>
-        <v>3</v>
-      </c>
-      <c r="AK67" s="3">
-        <f t="shared" ref="AK67:AK128" si="5">AVERAGE(I67:N67)</f>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="AL67" s="3">
-        <f t="shared" ref="AL67:AL128" si="6">AVERAGE(W67:Y67)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AM67" s="3">
-        <f t="shared" ref="AM67:AM128" si="7">AVERAGE(Z67:AI67)</f>
-        <v>4.4000000000000004</v>
-      </c>
     </row>
-    <row r="68" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -9081,24 +8000,8 @@
       <c r="AI68" s="1">
         <v>4</v>
       </c>
-      <c r="AJ68" s="3">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="AK68" s="3">
-        <f t="shared" si="5"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="AL68" s="3">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AM68" s="3">
-        <f t="shared" si="7"/>
-        <v>4.2</v>
-      </c>
     </row>
-    <row r="69" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
@@ -9204,24 +8107,8 @@
       <c r="AI69" s="1">
         <v>1</v>
       </c>
-      <c r="AJ69" s="3">
-        <f t="shared" si="4"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK69" s="3">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="AL69" s="3">
-        <f t="shared" si="6"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AM69" s="3">
-        <f t="shared" si="7"/>
-        <v>4.2</v>
-      </c>
     </row>
-    <row r="70" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -9327,24 +8214,8 @@
       <c r="AI70" s="1">
         <v>4</v>
       </c>
-      <c r="AJ70" s="3">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AK70" s="3">
-        <f t="shared" si="5"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL70" s="3">
-        <f t="shared" si="6"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AM70" s="3">
-        <f t="shared" si="7"/>
-        <v>3.4</v>
-      </c>
     </row>
-    <row r="71" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
@@ -9450,24 +8321,8 @@
       <c r="AI71" s="1">
         <v>5</v>
       </c>
-      <c r="AJ71" s="3">
-        <f t="shared" si="4"/>
-        <v>3.875</v>
-      </c>
-      <c r="AK71" s="3">
-        <f t="shared" si="5"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AL71" s="3">
-        <f t="shared" si="6"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AM71" s="3">
-        <f t="shared" si="7"/>
-        <v>4.2</v>
-      </c>
     </row>
-    <row r="72" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -9573,24 +8428,8 @@
       <c r="AI72" s="1">
         <v>4</v>
       </c>
-      <c r="AJ72" s="3">
-        <f t="shared" si="4"/>
-        <v>4.25</v>
-      </c>
-      <c r="AK72" s="3">
-        <f t="shared" si="5"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="AL72" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM72" s="3">
-        <f t="shared" si="7"/>
-        <v>4.2</v>
-      </c>
     </row>
-    <row r="73" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -9696,24 +8535,8 @@
       <c r="AI73" s="1">
         <v>4</v>
       </c>
-      <c r="AJ73" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AK73" s="3">
-        <f t="shared" si="5"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="AL73" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM73" s="3">
-        <f t="shared" si="7"/>
-        <v>3.9</v>
-      </c>
     </row>
-    <row r="74" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
@@ -9819,24 +8642,8 @@
       <c r="AI74" s="1">
         <v>3</v>
       </c>
-      <c r="AJ74" s="3">
-        <f t="shared" si="4"/>
-        <v>3.375</v>
-      </c>
-      <c r="AK74" s="3">
-        <f t="shared" si="5"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="AL74" s="3">
-        <f t="shared" si="6"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AM74" s="3">
-        <f t="shared" si="7"/>
-        <v>3.6</v>
-      </c>
     </row>
-    <row r="75" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
@@ -9942,24 +8749,8 @@
       <c r="AI75" s="1">
         <v>3</v>
       </c>
-      <c r="AJ75" s="3">
-        <f t="shared" si="4"/>
-        <v>2.625</v>
-      </c>
-      <c r="AK75" s="3">
-        <f t="shared" si="5"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="AL75" s="3">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AM75" s="3">
-        <f t="shared" si="7"/>
-        <v>3.1</v>
-      </c>
     </row>
-    <row r="76" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -10065,24 +8856,8 @@
       <c r="AI76" s="1">
         <v>5</v>
       </c>
-      <c r="AJ76" s="3">
-        <f t="shared" si="4"/>
-        <v>4.875</v>
-      </c>
-      <c r="AK76" s="3">
-        <f t="shared" si="5"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AL76" s="3">
-        <f t="shared" si="6"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AM76" s="3">
-        <f t="shared" si="7"/>
-        <v>4.8</v>
-      </c>
     </row>
-    <row r="77" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -10188,24 +8963,8 @@
       <c r="AI77" s="1">
         <v>5</v>
       </c>
-      <c r="AJ77" s="3">
-        <f t="shared" si="4"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK77" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AL77" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM77" s="3">
-        <f t="shared" si="7"/>
-        <v>4.8</v>
-      </c>
     </row>
-    <row r="78" spans="1:39" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
@@ -10311,24 +9070,8 @@
       <c r="AI78" s="1">
         <v>3</v>
       </c>
-      <c r="AJ78" s="3">
-        <f t="shared" si="4"/>
-        <v>3.25</v>
-      </c>
-      <c r="AK78" s="3">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AL78" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM78" s="3">
-        <f t="shared" si="7"/>
-        <v>3.7</v>
-      </c>
     </row>
-    <row r="79" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -10434,24 +9177,8 @@
       <c r="AI79" s="1">
         <v>4</v>
       </c>
-      <c r="AJ79" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AK79" s="3">
-        <f t="shared" si="5"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="AL79" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM79" s="3">
-        <f t="shared" si="7"/>
-        <v>3.9</v>
-      </c>
     </row>
-    <row r="80" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
@@ -10557,24 +9284,8 @@
       <c r="AI80" s="1">
         <v>2</v>
       </c>
-      <c r="AJ80" s="3">
-        <f t="shared" si="4"/>
-        <v>3.375</v>
-      </c>
-      <c r="AK80" s="3">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-      <c r="AL80" s="3">
-        <f t="shared" si="6"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AM80" s="3">
-        <f t="shared" si="7"/>
-        <v>2.8</v>
-      </c>
     </row>
-    <row r="81" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -10680,24 +9391,8 @@
       <c r="AI81" s="1">
         <v>4</v>
       </c>
-      <c r="AJ81" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AK81" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AL81" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM81" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="82" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
@@ -10803,24 +9498,8 @@
       <c r="AI82" s="1">
         <v>4</v>
       </c>
-      <c r="AJ82" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AK82" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AL82" s="3">
-        <f t="shared" si="6"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AM82" s="3">
-        <f t="shared" si="7"/>
-        <v>3.9</v>
-      </c>
     </row>
-    <row r="83" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
@@ -10926,24 +9605,8 @@
       <c r="AI83" s="1">
         <v>4</v>
       </c>
-      <c r="AJ83" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="AK83" s="3">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-      <c r="AL83" s="3">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AM83" s="3">
-        <f t="shared" si="7"/>
-        <v>3.4</v>
-      </c>
     </row>
-    <row r="84" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
@@ -11049,24 +9712,8 @@
       <c r="AI84" s="1">
         <v>4</v>
       </c>
-      <c r="AJ84" s="3">
-        <f t="shared" si="4"/>
-        <v>3.625</v>
-      </c>
-      <c r="AK84" s="3">
-        <f t="shared" si="5"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="AL84" s="3">
-        <f t="shared" si="6"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AM84" s="3">
-        <f t="shared" si="7"/>
-        <v>3.9</v>
-      </c>
     </row>
-    <row r="85" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
@@ -11172,24 +9819,8 @@
       <c r="AI85" s="1">
         <v>4</v>
       </c>
-      <c r="AJ85" s="3">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AK85" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AL85" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM85" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="86" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
@@ -11295,24 +9926,8 @@
       <c r="AI86" s="1">
         <v>4</v>
       </c>
-      <c r="AJ86" s="3">
-        <f t="shared" si="4"/>
-        <v>3.375</v>
-      </c>
-      <c r="AK86" s="3">
-        <f t="shared" si="5"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AL86" s="3">
-        <f t="shared" si="6"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AM86" s="3">
-        <f t="shared" si="7"/>
-        <v>3.6</v>
-      </c>
     </row>
-    <row r="87" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -11418,24 +10033,8 @@
       <c r="AI87" s="1">
         <v>5</v>
       </c>
-      <c r="AJ87" s="3">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AK87" s="3">
-        <f t="shared" si="5"/>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="AL87" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM87" s="3">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
     </row>
-    <row r="88" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
@@ -11541,24 +10140,8 @@
       <c r="AI88" s="1">
         <v>3</v>
       </c>
-      <c r="AJ88" s="3">
-        <f t="shared" si="4"/>
-        <v>4.375</v>
-      </c>
-      <c r="AK88" s="3">
-        <f t="shared" si="5"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AL88" s="3">
-        <f t="shared" si="6"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AM88" s="3">
-        <f t="shared" si="7"/>
-        <v>3.4</v>
-      </c>
     </row>
-    <row r="89" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -11664,24 +10247,8 @@
       <c r="AI89" s="1">
         <v>4</v>
       </c>
-      <c r="AJ89" s="3">
-        <f t="shared" si="4"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK89" s="3">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AL89" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM89" s="3">
-        <f t="shared" si="7"/>
-        <v>3.4</v>
-      </c>
     </row>
-    <row r="90" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -11787,24 +10354,8 @@
       <c r="AI90" s="1">
         <v>4</v>
       </c>
-      <c r="AJ90" s="3">
-        <f t="shared" si="4"/>
-        <v>4.25</v>
-      </c>
-      <c r="AK90" s="3">
-        <f t="shared" si="5"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL90" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM90" s="3">
-        <f t="shared" si="7"/>
-        <v>3.8</v>
-      </c>
     </row>
-    <row r="91" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1</v>
       </c>
@@ -11910,24 +10461,8 @@
       <c r="AI91" s="1">
         <v>4</v>
       </c>
-      <c r="AJ91" s="3">
-        <f t="shared" si="4"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK91" s="3">
-        <f t="shared" si="5"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL91" s="3">
-        <f t="shared" si="6"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AM91" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="92" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -12033,24 +10568,8 @@
       <c r="AI92" s="1">
         <v>4</v>
       </c>
-      <c r="AJ92" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="AK92" s="3">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AL92" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM92" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="93" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -12156,24 +10675,8 @@
       <c r="AI93" s="1">
         <v>3</v>
       </c>
-      <c r="AJ93" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AK93" s="3">
-        <f t="shared" si="5"/>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="AL93" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM93" s="3">
-        <f t="shared" si="7"/>
-        <v>3.7</v>
-      </c>
     </row>
-    <row r="94" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -12279,24 +10782,8 @@
       <c r="AI94" s="1">
         <v>5</v>
       </c>
-      <c r="AJ94" s="3">
-        <f t="shared" si="4"/>
-        <v>3.875</v>
-      </c>
-      <c r="AK94" s="3">
-        <f t="shared" si="5"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="AL94" s="3">
-        <f t="shared" si="6"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AM94" s="3">
-        <f t="shared" si="7"/>
-        <v>4.8</v>
-      </c>
     </row>
-    <row r="95" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1</v>
       </c>
@@ -12402,24 +10889,8 @@
       <c r="AI95" s="1">
         <v>3</v>
       </c>
-      <c r="AJ95" s="3">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AK95" s="3">
-        <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="AL95" s="3">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AM95" s="3">
-        <f t="shared" si="7"/>
-        <v>3.2</v>
-      </c>
     </row>
-    <row r="96" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
@@ -12525,24 +10996,8 @@
       <c r="AI96" s="1">
         <v>2</v>
       </c>
-      <c r="AJ96" s="3">
-        <f t="shared" si="4"/>
-        <v>2.875</v>
-      </c>
-      <c r="AK96" s="3">
-        <f t="shared" si="5"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="AL96" s="3">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AM96" s="3">
-        <f t="shared" si="7"/>
-        <v>2.7</v>
-      </c>
     </row>
-    <row r="97" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -12648,24 +11103,8 @@
       <c r="AI97" s="1">
         <v>4</v>
       </c>
-      <c r="AJ97" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AK97" s="3">
-        <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="AL97" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM97" s="3">
-        <f t="shared" si="7"/>
-        <v>4.4000000000000004</v>
-      </c>
     </row>
-    <row r="98" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
@@ -12771,24 +11210,8 @@
       <c r="AI98" s="1">
         <v>4</v>
       </c>
-      <c r="AJ98" s="3">
-        <f t="shared" si="4"/>
-        <v>2.875</v>
-      </c>
-      <c r="AK98" s="3">
-        <f t="shared" si="5"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="AL98" s="3">
-        <f t="shared" si="6"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AM98" s="3">
-        <f t="shared" si="7"/>
-        <v>3.3</v>
-      </c>
     </row>
-    <row r="99" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>13</v>
       </c>
@@ -12894,24 +11317,8 @@
       <c r="AI99" s="1">
         <v>4</v>
       </c>
-      <c r="AJ99" s="3">
-        <f t="shared" si="4"/>
-        <v>3.125</v>
-      </c>
-      <c r="AK99" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AL99" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM99" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="100" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
@@ -13017,24 +11424,8 @@
       <c r="AI100" s="1">
         <v>5</v>
       </c>
-      <c r="AJ100" s="3">
-        <f t="shared" si="4"/>
-        <v>4.75</v>
-      </c>
-      <c r="AK100" s="3">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
-      <c r="AL100" s="3">
-        <f t="shared" si="6"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AM100" s="3">
-        <f t="shared" si="7"/>
-        <v>4.3</v>
-      </c>
     </row>
-    <row r="101" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>13</v>
       </c>
@@ -13140,24 +11531,8 @@
       <c r="AI101" s="1">
         <v>4</v>
       </c>
-      <c r="AJ101" s="3">
-        <f t="shared" si="4"/>
-        <v>3.75</v>
-      </c>
-      <c r="AK101" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AL101" s="3">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AM101" s="3">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
     </row>
-    <row r="102" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
@@ -13263,24 +11638,8 @@
       <c r="AI102" s="1">
         <v>4</v>
       </c>
-      <c r="AJ102" s="3">
-        <f t="shared" si="4"/>
-        <v>2.125</v>
-      </c>
-      <c r="AK102" s="3">
-        <f t="shared" si="5"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL102" s="3">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AM102" s="3">
-        <f t="shared" si="7"/>
-        <v>3.7</v>
-      </c>
     </row>
-    <row r="103" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>13</v>
       </c>
@@ -13386,24 +11745,8 @@
       <c r="AI103" s="1">
         <v>4</v>
       </c>
-      <c r="AJ103" s="3">
-        <f t="shared" si="4"/>
-        <v>4.375</v>
-      </c>
-      <c r="AK103" s="3">
-        <f t="shared" si="5"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="AL103" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM103" s="3">
-        <f t="shared" si="7"/>
-        <v>3.7</v>
-      </c>
     </row>
-    <row r="104" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -13509,24 +11852,8 @@
       <c r="AI104" s="1">
         <v>4</v>
       </c>
-      <c r="AJ104" s="3">
-        <f t="shared" si="4"/>
-        <v>3.875</v>
-      </c>
-      <c r="AK104" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AL104" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM104" s="3">
-        <f t="shared" si="7"/>
-        <v>3.7</v>
-      </c>
     </row>
-    <row r="105" spans="1:39" ht="135" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="135" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -13632,24 +11959,8 @@
       <c r="AI105" s="1">
         <v>5</v>
       </c>
-      <c r="AJ105" s="3">
-        <f t="shared" si="4"/>
-        <v>4.875</v>
-      </c>
-      <c r="AK105" s="3">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AL105" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM105" s="3">
-        <f t="shared" si="7"/>
-        <v>4.7</v>
-      </c>
     </row>
-    <row r="106" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>13</v>
       </c>
@@ -13755,24 +12066,8 @@
       <c r="AI106" s="1">
         <v>5</v>
       </c>
-      <c r="AJ106" s="3">
-        <f t="shared" si="4"/>
-        <v>4.5</v>
-      </c>
-      <c r="AK106" s="3">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AL106" s="3">
-        <f t="shared" si="6"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AM106" s="3">
-        <f t="shared" si="7"/>
-        <v>4.9000000000000004</v>
-      </c>
     </row>
-    <row r="107" spans="1:39" ht="135" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" ht="135" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
@@ -13878,24 +12173,8 @@
       <c r="AI107" s="1">
         <v>2</v>
       </c>
-      <c r="AJ107" s="3">
-        <f t="shared" si="4"/>
-        <v>2.875</v>
-      </c>
-      <c r="AK107" s="3">
-        <f t="shared" si="5"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL107" s="3">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AM107" s="3">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
     </row>
-    <row r="108" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
@@ -14001,24 +12280,8 @@
       <c r="AI108" s="1">
         <v>3</v>
       </c>
-      <c r="AJ108" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="AK108" s="3">
-        <f t="shared" si="5"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL108" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM108" s="3">
-        <f t="shared" si="7"/>
-        <v>3.7</v>
-      </c>
     </row>
-    <row r="109" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -14124,24 +12387,8 @@
       <c r="AI109" s="1">
         <v>4</v>
       </c>
-      <c r="AJ109" s="3">
-        <f t="shared" si="4"/>
-        <v>3.5</v>
-      </c>
-      <c r="AK109" s="3">
-        <f t="shared" si="5"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="AL109" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM109" s="3">
-        <f t="shared" si="7"/>
-        <v>3.9</v>
-      </c>
     </row>
-    <row r="110" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
@@ -14247,24 +12494,8 @@
       <c r="AI110" s="1">
         <v>4</v>
       </c>
-      <c r="AJ110" s="3">
-        <f t="shared" si="4"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK110" s="3">
-        <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="AL110" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM110" s="3">
-        <f t="shared" si="7"/>
-        <v>3.6</v>
-      </c>
     </row>
-    <row r="111" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -14370,24 +12601,8 @@
       <c r="AI111" s="1">
         <v>5</v>
       </c>
-      <c r="AJ111" s="3">
-        <f t="shared" si="4"/>
-        <v>2.125</v>
-      </c>
-      <c r="AK111" s="3">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="AL111" s="3">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AM111" s="3">
-        <f t="shared" si="7"/>
-        <v>4.5</v>
-      </c>
     </row>
-    <row r="112" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
@@ -14493,24 +12708,8 @@
       <c r="AI112" s="1">
         <v>4</v>
       </c>
-      <c r="AJ112" s="3">
-        <f t="shared" si="4"/>
-        <v>3.25</v>
-      </c>
-      <c r="AK112" s="3">
-        <f t="shared" si="5"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="AL112" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM112" s="3">
-        <f t="shared" si="7"/>
-        <v>4.7</v>
-      </c>
     </row>
-    <row r="113" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>37</v>
       </c>
@@ -14616,24 +12815,8 @@
       <c r="AI113" s="1">
         <v>4</v>
       </c>
-      <c r="AJ113" s="3">
-        <f t="shared" si="4"/>
-        <v>2.625</v>
-      </c>
-      <c r="AK113" s="3">
-        <f t="shared" si="5"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL113" s="3">
-        <f t="shared" si="6"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AM113" s="3">
-        <f t="shared" si="7"/>
-        <v>3.9</v>
-      </c>
     </row>
-    <row r="114" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -14739,24 +12922,8 @@
       <c r="AI114" s="1">
         <v>4</v>
       </c>
-      <c r="AJ114" s="3">
-        <f t="shared" si="4"/>
-        <v>2.875</v>
-      </c>
-      <c r="AK114" s="3">
-        <f t="shared" si="5"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AL114" s="3">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AM114" s="3">
-        <f t="shared" si="7"/>
-        <v>4.2</v>
-      </c>
     </row>
-    <row r="115" spans="1:39" ht="135" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="135" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>13</v>
       </c>
@@ -14862,24 +13029,8 @@
       <c r="AI115" s="1">
         <v>4</v>
       </c>
-      <c r="AJ115" s="3">
-        <f t="shared" si="4"/>
-        <v>3.75</v>
-      </c>
-      <c r="AK115" s="3">
-        <f t="shared" si="5"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AL115" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM115" s="3">
-        <f t="shared" si="7"/>
-        <v>3.7</v>
-      </c>
     </row>
-    <row r="116" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>13</v>
       </c>
@@ -14985,24 +13136,8 @@
       <c r="AI116" s="1">
         <v>4</v>
       </c>
-      <c r="AJ116" s="3">
-        <f t="shared" si="4"/>
-        <v>3.875</v>
-      </c>
-      <c r="AK116" s="3">
-        <f t="shared" si="5"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AL116" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AM116" s="3">
-        <f t="shared" si="7"/>
-        <v>3.7</v>
-      </c>
     </row>
-    <row r="117" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
@@ -15108,24 +13243,8 @@
       <c r="AI117" s="1">
         <v>5</v>
       </c>
-      <c r="AJ117" s="3">
-        <f t="shared" si="4"/>
-        <v>4.875</v>
-      </c>
-      <c r="AK117" s="3">
-        <f t="shared" si="5"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="AL117" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM117" s="3">
-        <f t="shared" si="7"/>
-        <v>4.5</v>
-      </c>
     </row>
-    <row r="118" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -15231,24 +13350,8 @@
       <c r="AI118" s="1">
         <v>4</v>
       </c>
-      <c r="AJ118" s="3">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AK118" s="3">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="AL118" s="3">
-        <f t="shared" si="6"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AM118" s="3">
-        <f t="shared" si="7"/>
-        <v>3.6</v>
-      </c>
     </row>
-    <row r="119" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
@@ -15354,24 +13457,8 @@
       <c r="AI119" s="1">
         <v>4</v>
       </c>
-      <c r="AJ119" s="3">
-        <f t="shared" si="4"/>
-        <v>3.875</v>
-      </c>
-      <c r="AK119" s="3">
-        <f t="shared" si="5"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="AL119" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM119" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="120" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>13</v>
       </c>
@@ -15477,24 +13564,8 @@
       <c r="AI120" s="1">
         <v>4</v>
       </c>
-      <c r="AJ120" s="3">
-        <f t="shared" si="4"/>
-        <v>4.25</v>
-      </c>
-      <c r="AK120" s="3">
-        <f t="shared" si="5"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AL120" s="3">
-        <f t="shared" si="6"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AM120" s="3">
-        <f t="shared" si="7"/>
-        <v>4.2</v>
-      </c>
     </row>
-    <row r="121" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
@@ -15600,24 +13671,8 @@
       <c r="AI121" s="1">
         <v>4</v>
       </c>
-      <c r="AJ121" s="3">
-        <f t="shared" si="4"/>
-        <v>4.375</v>
-      </c>
-      <c r="AK121" s="3">
-        <f t="shared" si="5"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="AL121" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM121" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
     </row>
-    <row r="122" spans="1:39" ht="135" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" ht="135" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
@@ -15723,24 +13778,8 @@
       <c r="AI122" s="1">
         <v>3</v>
       </c>
-      <c r="AJ122" s="3">
-        <f t="shared" si="4"/>
-        <v>2.875</v>
-      </c>
-      <c r="AK122" s="3">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AL122" s="3">
-        <f t="shared" si="6"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AM122" s="3">
-        <f t="shared" si="7"/>
-        <v>3.2</v>
-      </c>
     </row>
-    <row r="123" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
@@ -15846,24 +13885,8 @@
       <c r="AI123" s="1">
         <v>3</v>
       </c>
-      <c r="AJ123" s="3">
-        <f t="shared" si="4"/>
-        <v>4.875</v>
-      </c>
-      <c r="AK123" s="3">
-        <f t="shared" si="5"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AL123" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM123" s="3">
-        <f t="shared" si="7"/>
-        <v>3.7</v>
-      </c>
     </row>
-    <row r="124" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -15969,24 +13992,8 @@
       <c r="AI124" s="1">
         <v>4</v>
       </c>
-      <c r="AJ124" s="3">
-        <f t="shared" si="4"/>
-        <v>2.375</v>
-      </c>
-      <c r="AK124" s="3">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="AL124" s="3">
-        <f t="shared" si="6"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AM124" s="3">
-        <f t="shared" si="7"/>
-        <v>4.7</v>
-      </c>
     </row>
-    <row r="125" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>13</v>
       </c>
@@ -16092,24 +14099,8 @@
       <c r="AI125" s="1">
         <v>5</v>
       </c>
-      <c r="AJ125" s="3">
-        <f t="shared" si="4"/>
-        <v>4.875</v>
-      </c>
-      <c r="AK125" s="3">
-        <f t="shared" si="5"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AL125" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM125" s="3">
-        <f t="shared" si="7"/>
-        <v>4.5999999999999996</v>
-      </c>
     </row>
-    <row r="126" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -16215,24 +14206,8 @@
       <c r="AI126" s="1">
         <v>5</v>
       </c>
-      <c r="AJ126" s="3">
-        <f t="shared" si="4"/>
-        <v>4.625</v>
-      </c>
-      <c r="AK126" s="3">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AL126" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM126" s="3">
-        <f t="shared" si="7"/>
-        <v>4.8</v>
-      </c>
     </row>
-    <row r="127" spans="1:39" ht="105" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
@@ -16260,8 +14235,8 @@
       <c r="I127" s="1">
         <v>3</v>
       </c>
-      <c r="J127" s="1">
-        <v>4</v>
+      <c r="J127" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="K127" s="1">
         <v>1</v>
@@ -16338,43 +14313,16 @@
       <c r="AI127" s="1">
         <v>5</v>
       </c>
-      <c r="AJ127" s="3">
-        <f t="shared" si="4"/>
-        <v>3.25</v>
-      </c>
-      <c r="AK127" s="3">
-        <f t="shared" si="5"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="AL127" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AM127" s="3">
-        <f t="shared" si="7"/>
-        <v>4.5</v>
-      </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AJ128" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK128" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL128" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM128" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+    <row r="128" spans="1:35" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AI128" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AI128" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A2:A127 B2:B127 C2:C127 D2:D127 E2:E127 F2:F127 G2:G127 H2:H127" numberStoredAsText="1"/>
